--- a/Question_Set2/Programming skills/PySpark.xlsx
+++ b/Question_Set2/Programming skills/PySpark.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are implementing a code for retrieving SparkSessions in a data processing pipeline. You want the code to first check if a session with the given configuration exists. If it does not exist, the code should create a new session and assign it as the global default session. Which method call fulfills these requirements?', 'ques_type': 2, 'options': ['SparkSession.builder.config("key", "val").getOrCreate()', 'SparkSession.builder.config("key", "val").getOrCreate().setGlobal()', 'SparkSession.builder.config("key", "val").getOrCreateGlobal()', 'SparkSession.builder.config("key", "val").getDefaultGlobal()'], 'score': 'SparkSession.builder.config("key", "val").getOrCreate()'}, {'title': 'You are implementing a data processing pipeline using the Pandas API on Spark. You want to be able to detect non-missing values in the dataframe. Which functions can you use to accomplish this?', 'ques_type': 15, 'options': ['pyspark.pandas.nonmissing', 'pyspark.pandas.notNA', 'pyspark.pandas.isnotNA', 'pyspark.pandas.notna', 'pyspark.pandas.notnull'], 'score': ['pyspark.pandas.notna', 'pyspark.pandas.notnull']}, {'title': 'You are reviewing your co-worker’s code, related to machine learning with PySpark. You are currently looking at vectors, and you notice that most of the values in the vectors are 0s. You want to convert regular vectors to sparse ones and switch from the pyspark.ml.linalg.DenseVector function to pyspark.ml.linalg.SparseVector. No additional changes are required. How many arguments will you need to reassign to switch from DenseVector to SparseVector?', 'ques_type': 2, 'options': ['0', '1', '2', '3'], 'score': '0'}, {'title': 'You are designing a Spark application, and you want to define a cluster manager to which the application should connect when it starts. Which function from the SparkConf module should you use?', 'ques_type': 2, 'options': ['setMaster', 'setSparkHome', 'setExecutorEnv', 'setAppName'], 'score': 'setMaster'}]</t>
+    <t>questions = [
+    {
+        "title": "You are implementing a code for retrieving SparkSessions in a data processing pipeline. You want the code to first check if a session with the given configuration exists. If it does not exist, the code should create a new session and assign it as the global default session. Which method call fulfills these requirements?",
+        "ques_type": 2,
+        "options": [
+            "SparkSession.builder.config(\"key\", \"val\").getOrCreate()",
+            "SparkSession.builder.config(\"key\", \"val\").getOrCreate().setGlobal()",
+            "SparkSession.builder.config(\"key\", \"val\").getOrCreateGlobal()",
+            "SparkSession.builder.config(\"key\", \"val\").getDefaultGlobal()"
+        ],
+        "score": "SparkSession.builder.config(\"key\", \"val\").getOrCreate()"
+    },
+    {
+        "title": "You are implementing a data processing pipeline using the Pandas API on Spark. You want to be able to detect non-missing values in the dataframe. Which functions can you use to accomplish this?",
+        "ques_type": 15,
+        "options": [
+            "pyspark.pandas.nonmissing",
+            "pyspark.pandas.notNA",
+            "pyspark.pandas.isnotNA",
+            "pyspark.pandas.notna",
+            "pyspark.pandas.notnull"
+        ],
+        "score": [
+            "pyspark.pandas.notna",
+            "pyspark.pandas.notnull"
+        ]
+    },
+    {
+        "title": "You are reviewing your co-worker\u2019s code, related to machine learning with PySpark. You are currently looking at vectors, and you notice that most of the values in the vectors are 0s. You want to convert regular vectors to sparse ones and switch from the pyspark.ml.linalg.DenseVector function to pyspark.ml.linalg.SparseVector. No additional changes are required. How many arguments will you need to reassign to switch from DenseVector to SparseVector?",
+        "ques_type": 2,
+        "options": [
+            "0",
+            "1",
+            "2",
+            "3"
+        ],
+        "score": "0"
+    },
+    {
+        "title": "You are designing a Spark application, and you want to define a cluster manager to which the application should connect when it starts. Which function from the SparkConf module should you use?",
+        "ques_type": 2,
+        "options": [
+            "setMaster",
+            "setSparkHome",
+            "setExecutorEnv",
+            "setAppName"
+        ],
+        "score": "setMaster"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
